--- a/biology/Zoologie/Glyptocidaris_crenularis/Glyptocidaris_crenularis.xlsx
+++ b/biology/Zoologie/Glyptocidaris_crenularis/Glyptocidaris_crenularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyptocidaris crenularis est une espèce d'oursins, la seule de la famille des Glyptocidaridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oursin régulier de forme globulaire (légèrement subconique de profil). Il est recouvert de radioles (piquants) présentant deux types différents : les plus longues (radioles « primaires »), fortes et pointues, sont disposées en méridiens bien séparés, et servent à la locomotion ; leur longueur peut atteindre celle du rayon du test (coquille). Les plus courtes (radioles « secondaires ») servent à la protection rapprochée du test. Les radioles primaires sont le plus souvent brunâtres à pointe claire chez l'adulte, et les secondaires verdâtres. Le test (coquille) est généralement verdâtre.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec son appareil masticateur situé sur la face inférieure, cet oursin broute le substrat avec un régime très omnivore : algues, éponges, débris, charognes, animaux sessiles…
 Sa reproduction est sexuée et gonochorique : la fécondation a lieu en pleine eau, où les larves vont se développer parmi le plancton avant de se fixer au bout de quelques semaines.
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oursin vit dans les eaux de l'Océan Pacifique.
 </t>
